--- a/Spraw3/lab3 (2).xlsx
+++ b/Spraw3/lab3 (2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia projekt\GitHub\FIZ31\Spraw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE026156-4C9F-4FB9-9ED5-7F28377A32A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F12ABB8-3943-4E04-826B-F0F1F0B94834}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5586,7 +5586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:T160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T97" sqref="T97"/>
     </sheetView>
   </sheetViews>

--- a/Spraw3/lab3 (2).xlsx
+++ b/Spraw3/lab3 (2).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Documents\Janek\Uczelnia\Semestr3\FIZ31\Spraw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE026156-4C9F-4FB9-9ED5-7F28377A32A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65596AB-C760-4A6C-B041-A6AE2E734764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="16">
   <si>
     <t>Temp[C]</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>uc(Tk)</t>
+  </si>
+  <si>
+    <t>u(U)[V]</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -369,7 +372,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -732,7 +735,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -771,7 +774,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="573609232"/>
@@ -853,7 +856,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -892,7 +895,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="579632064"/>
@@ -940,7 +943,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1772,7 +1775,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1443813792"/>
@@ -1873,7 +1876,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1501332384"/>
@@ -1921,7 +1924,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1972,7 +1975,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2054,7 +2057,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2372,7 +2375,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="539899632"/>
@@ -2434,7 +2437,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="539905536"/>
@@ -2475,7 +2478,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2526,7 +2529,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2608,7 +2611,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2890,7 +2893,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3012,7 +3015,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3219,7 +3222,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3393,7 +3396,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="516221040"/>
@@ -3455,7 +3458,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="516219728"/>
@@ -3496,7 +3499,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5586,8 +5589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:T160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T97" sqref="T97"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O100" sqref="O100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7762,7 +7765,7 @@
       </c>
       <c r="T97">
         <f>SQRT(T102^2+S89^2)</f>
-        <v>2.6155556210143036</v>
+        <v>2.6155555556448191</v>
       </c>
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.3">
@@ -7810,6 +7813,9 @@
         <f t="shared" si="4"/>
         <v>1.0686135552913228E-5</v>
       </c>
+      <c r="O99" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B100">
@@ -7834,12 +7840,8 @@
         <v>9.4185493460166609E-6</v>
       </c>
       <c r="O100">
-        <f>0.05/100*D51+0.001</f>
-        <v>1.01615E-3</v>
-      </c>
-      <c r="Q100">
-        <f>O100/SQRT(3)</f>
-        <v>5.8667447603703827E-4</v>
+        <f>SQRT(POWER(0.05/100*D51+0.001,2)/(1.73))</f>
+        <v>7.7256453889821132E-4</v>
       </c>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.3">
@@ -7865,12 +7867,8 @@
         <v>8.2309631391201151E-6</v>
       </c>
       <c r="O101">
-        <f t="shared" ref="O101:O160" si="5">0.05/100*D52+0.001</f>
-        <v>1.0152500000000001E-3</v>
-      </c>
-      <c r="Q101">
-        <f t="shared" ref="Q101:Q160" si="6">O101/SQRT(3)</f>
-        <v>5.8615486079476769E-4</v>
+        <f t="shared" ref="O101:O160" si="5">SQRT(POWER(0.05/100*D52+0.001,2)/(1.73))</f>
+        <v>7.7188028156906859E-4</v>
       </c>
       <c r="T101" t="s">
         <v>13</v>
@@ -7900,15 +7898,11 @@
       </c>
       <c r="O102">
         <f t="shared" si="5"/>
-        <v>1.01475E-3</v>
-      </c>
-      <c r="Q102">
-        <f t="shared" si="6"/>
-        <v>5.8586618566017277E-4</v>
+        <v>7.715001386084337E-4</v>
       </c>
       <c r="T102">
         <f>SQRT(O93^2+Q112^2)</f>
-        <v>5.8516834351241877E-4</v>
+        <v>2.160901237296248E-5</v>
       </c>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.3">
@@ -7935,11 +7929,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="5"/>
-        <v>1.01425E-3</v>
-      </c>
-      <c r="Q103">
-        <f t="shared" si="6"/>
-        <v>5.8557751052557797E-4</v>
+        <v>7.7111999564779881E-4</v>
       </c>
     </row>
     <row r="104" spans="2:20" x14ac:dyDescent="0.3">
@@ -7966,11 +7956,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="5"/>
-        <v>1.0139000000000001E-3</v>
-      </c>
-      <c r="Q104">
-        <f t="shared" si="6"/>
-        <v>5.853754379313616E-4</v>
+        <v>7.7085389557535449E-4</v>
       </c>
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.3">
@@ -7997,11 +7983,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="5"/>
-        <v>1.0136500000000001E-3</v>
-      </c>
-      <c r="Q105">
-        <f t="shared" si="6"/>
-        <v>5.8523110036406425E-4</v>
+        <v>7.706638240950371E-4</v>
       </c>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.3">
@@ -8028,11 +8010,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="5"/>
-        <v>1.0135000000000001E-3</v>
-      </c>
-      <c r="Q106">
-        <f t="shared" si="6"/>
-        <v>5.8514449782368582E-4</v>
+        <v>7.7054978120684654E-4</v>
       </c>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.3">
@@ -8059,11 +8037,7 @@
       </c>
       <c r="O107">
         <f t="shared" si="5"/>
-        <v>1.0134E-3</v>
-      </c>
-      <c r="Q107">
-        <f t="shared" si="6"/>
-        <v>5.8508676279676679E-4</v>
+        <v>7.704737526147196E-4</v>
       </c>
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.3">
@@ -8090,11 +8064,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="5"/>
-        <v>1.0133E-3</v>
-      </c>
-      <c r="Q108">
-        <f t="shared" si="6"/>
-        <v>5.8502902776984777E-4</v>
+        <v>7.7039772402259256E-4</v>
       </c>
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.3">
@@ -8121,11 +8091,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="5"/>
-        <v>1.0132000000000001E-3</v>
-      </c>
-      <c r="Q109">
-        <f t="shared" si="6"/>
-        <v>5.8497129274292896E-4</v>
+        <v>7.7032169543046574E-4</v>
       </c>
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.3">
@@ -8152,11 +8118,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="5"/>
-        <v>1.0131000000000001E-3</v>
-      </c>
-      <c r="Q110">
-        <f t="shared" si="6"/>
-        <v>5.8491355771600993E-4</v>
+        <v>7.7024566683833869E-4</v>
       </c>
     </row>
     <row r="111" spans="2:20" x14ac:dyDescent="0.3">
@@ -8183,11 +8145,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="5"/>
-        <v>1.013E-3</v>
-      </c>
-      <c r="Q111">
-        <f t="shared" si="6"/>
-        <v>5.8485582268909091E-4</v>
+        <v>7.7016963824621165E-4</v>
       </c>
     </row>
     <row r="112" spans="2:20" x14ac:dyDescent="0.3">
@@ -8197,527 +8155,331 @@
       </c>
       <c r="O112">
         <f t="shared" si="5"/>
-        <v>1.01285E-3</v>
-      </c>
-      <c r="Q112">
-        <f t="shared" si="6"/>
-        <v>5.8476922014871248E-4</v>
-      </c>
-    </row>
-    <row r="113" spans="13:17" x14ac:dyDescent="0.3">
+        <v>7.700555953580213E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M113">
         <f t="shared" si="4"/>
         <v>9.8033769322235326E-6</v>
       </c>
       <c r="O113">
         <f t="shared" si="5"/>
-        <v>1.01275E-3</v>
-      </c>
-      <c r="Q113">
-        <f t="shared" si="6"/>
-        <v>5.8471148512179356E-4</v>
-      </c>
-    </row>
-    <row r="114" spans="13:17" x14ac:dyDescent="0.3">
+        <v>7.6997956676589426E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M114">
         <f t="shared" si="4"/>
         <v>1.7065445897740779E-5</v>
       </c>
       <c r="O114">
         <f t="shared" si="5"/>
-        <v>1.0126E-3</v>
-      </c>
-      <c r="Q114">
-        <f t="shared" si="6"/>
-        <v>5.8462488258141513E-4</v>
-      </c>
-    </row>
-    <row r="115" spans="13:17" x14ac:dyDescent="0.3">
+        <v>7.6986552387770381E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M115">
         <f t="shared" si="4"/>
         <v>2.6327514863257992E-5</v>
       </c>
       <c r="O115">
         <f t="shared" si="5"/>
-        <v>1.01245E-3</v>
-      </c>
-      <c r="Q115">
-        <f t="shared" si="6"/>
-        <v>5.845382800410367E-4</v>
-      </c>
-    </row>
-    <row r="116" spans="13:17" x14ac:dyDescent="0.3">
+        <v>7.6975148098951335E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M116">
         <f t="shared" si="4"/>
         <v>3.4000963139120087E-5</v>
       </c>
       <c r="O116">
         <f t="shared" si="5"/>
-        <v>1.0122E-3</v>
-      </c>
-      <c r="Q116">
-        <f t="shared" si="6"/>
-        <v>5.8439394247373924E-4</v>
-      </c>
-    </row>
-    <row r="117" spans="13:17" x14ac:dyDescent="0.3">
+        <v>7.6956140950919596E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M117">
         <f t="shared" si="4"/>
         <v>4.1358204518430429E-5</v>
       </c>
       <c r="O117">
         <f t="shared" si="5"/>
-        <v>1.0119E-3</v>
-      </c>
-      <c r="Q117">
-        <f t="shared" si="6"/>
-        <v>5.8422073739298238E-4</v>
-      </c>
-    </row>
-    <row r="118" spans="13:17" x14ac:dyDescent="0.3">
+        <v>7.6933332373281505E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M118">
         <f t="shared" si="4"/>
         <v>4.6663032104637339E-5</v>
       </c>
       <c r="O118">
         <f t="shared" si="5"/>
-        <v>1.0114E-3</v>
-      </c>
-      <c r="Q118">
-        <f t="shared" si="6"/>
-        <v>5.8393206225838747E-4</v>
-      </c>
-    </row>
-    <row r="119" spans="13:17" x14ac:dyDescent="0.3">
+        <v>7.6895318077218017E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M119">
         <f t="shared" si="4"/>
         <v>5.3744066587395969E-5</v>
       </c>
       <c r="O119">
         <f t="shared" si="5"/>
-        <v>1.01085E-3</v>
-      </c>
-      <c r="Q119">
-        <f t="shared" si="6"/>
-        <v>5.8361451961033326E-4</v>
-      </c>
-    </row>
-    <row r="120" spans="13:17" x14ac:dyDescent="0.3">
+        <v>7.6853502351548176E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M120">
         <f t="shared" si="4"/>
         <v>5.8232687277051114E-5</v>
       </c>
       <c r="O120">
         <f t="shared" si="5"/>
-        <v>1.0103E-3</v>
-      </c>
-      <c r="Q120">
-        <f t="shared" si="6"/>
-        <v>5.8329697696227895E-4</v>
-      </c>
-    </row>
-    <row r="121" spans="13:17" x14ac:dyDescent="0.3">
+        <v>7.6811686625878357E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="13:15" x14ac:dyDescent="0.3">
       <c r="M121">
         <f t="shared" si="4"/>
         <v>6.1325101070154538E-5</v>
       </c>
       <c r="O121">
         <f t="shared" si="5"/>
-        <v>1.0097999999999999E-3</v>
-      </c>
-      <c r="Q121">
-        <f t="shared" si="6"/>
-        <v>5.8300830182768414E-4</v>
-      </c>
-    </row>
-    <row r="122" spans="13:17" x14ac:dyDescent="0.3">
+        <v>7.6773672329814857E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="13:15" x14ac:dyDescent="0.3">
       <c r="O122">
         <f t="shared" si="5"/>
-        <v>1.0093000000000001E-3</v>
-      </c>
-      <c r="Q122">
-        <f t="shared" si="6"/>
-        <v>5.8271962669308934E-4</v>
-      </c>
-    </row>
-    <row r="123" spans="13:17" x14ac:dyDescent="0.3">
+        <v>7.673565803375139E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="13:15" x14ac:dyDescent="0.3">
       <c r="O123">
         <f t="shared" si="5"/>
-        <v>1.00895E-3</v>
-      </c>
-      <c r="Q123">
-        <f t="shared" si="6"/>
-        <v>5.8251755409887297E-4</v>
-      </c>
-    </row>
-    <row r="124" spans="13:17" x14ac:dyDescent="0.3">
+        <v>7.6709048026506947E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="13:15" x14ac:dyDescent="0.3">
       <c r="O124">
         <f t="shared" si="5"/>
-        <v>1.00865E-3</v>
-      </c>
-      <c r="Q124">
-        <f t="shared" si="6"/>
-        <v>5.823443490181161E-4</v>
-      </c>
-    </row>
-    <row r="125" spans="13:17" x14ac:dyDescent="0.3">
+        <v>7.6686239448868856E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="13:15" x14ac:dyDescent="0.3">
       <c r="O125">
         <f t="shared" si="5"/>
-        <v>1.0084499999999999E-3</v>
-      </c>
-      <c r="Q125">
-        <f t="shared" si="6"/>
-        <v>5.8222887896427805E-4</v>
-      </c>
-    </row>
-    <row r="126" spans="13:17" x14ac:dyDescent="0.3">
+        <v>7.6671033730443447E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="13:15" x14ac:dyDescent="0.3">
       <c r="O126">
         <f t="shared" si="5"/>
-        <v>1.0082000000000001E-3</v>
-      </c>
-      <c r="Q126">
-        <f t="shared" si="6"/>
-        <v>5.8208454139698081E-4</v>
-      </c>
-    </row>
-    <row r="127" spans="13:17" x14ac:dyDescent="0.3">
+        <v>7.6652026582411719E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="13:15" x14ac:dyDescent="0.3">
       <c r="O127">
         <f t="shared" si="5"/>
-        <v>1.0080499999999999E-3</v>
-      </c>
-      <c r="Q127">
-        <f t="shared" si="6"/>
-        <v>5.8199793885660228E-4</v>
-      </c>
-    </row>
-    <row r="128" spans="13:17" x14ac:dyDescent="0.3">
+        <v>7.6640622293592663E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="13:15" x14ac:dyDescent="0.3">
       <c r="O128">
         <f t="shared" si="5"/>
-        <v>1.0079500000000001E-3</v>
-      </c>
-      <c r="Q128">
-        <f t="shared" si="6"/>
-        <v>5.8194020382968336E-4</v>
-      </c>
-    </row>
-    <row r="129" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.663301943437997E-4</v>
+      </c>
+    </row>
+    <row r="129" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O129">
         <f t="shared" si="5"/>
-        <v>1.00785E-3</v>
-      </c>
-      <c r="Q129">
-        <f t="shared" si="6"/>
-        <v>5.8188246880276433E-4</v>
-      </c>
-    </row>
-    <row r="130" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6625416575167265E-4</v>
+      </c>
+    </row>
+    <row r="130" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O130">
         <f t="shared" si="5"/>
-        <v>1.00775E-3</v>
-      </c>
-      <c r="Q130">
-        <f t="shared" si="6"/>
-        <v>5.8182473377584542E-4</v>
-      </c>
-    </row>
-    <row r="131" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6617813715954572E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O131">
         <f t="shared" si="5"/>
-        <v>1.0077E-3</v>
-      </c>
-      <c r="Q131">
-        <f t="shared" si="6"/>
-        <v>5.817958662623859E-4</v>
-      </c>
-    </row>
-    <row r="132" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6614012286348231E-4</v>
+      </c>
+    </row>
+    <row r="132" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O132">
         <f t="shared" si="5"/>
-        <v>1.0076500000000001E-3</v>
-      </c>
-      <c r="Q132">
-        <f t="shared" si="6"/>
-        <v>5.817669987489265E-4</v>
-      </c>
-    </row>
-    <row r="133" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6610210856741889E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O133">
-        <f t="shared" si="5"/>
-        <v>1.0076E-3</v>
-      </c>
-      <c r="Q133">
-        <f t="shared" si="6"/>
-        <v>5.8173813123546698E-4</v>
-      </c>
-    </row>
-    <row r="134" spans="15:17" x14ac:dyDescent="0.3">
+        <f>SQRT(POWER(0.05/100*D84+0.001,2)/(1.73))</f>
+        <v>7.6606409427135526E-4</v>
+      </c>
+    </row>
+    <row r="134" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O134">
         <f t="shared" si="5"/>
-        <v>1.0075500000000001E-3</v>
-      </c>
-      <c r="Q134">
-        <f t="shared" si="6"/>
-        <v>5.8170926372200747E-4</v>
-      </c>
-    </row>
-    <row r="135" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6602607997529185E-4</v>
+      </c>
+    </row>
+    <row r="135" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O135">
         <f t="shared" si="5"/>
-        <v>1.0075500000000001E-3</v>
-      </c>
-      <c r="Q135">
-        <f t="shared" si="6"/>
-        <v>5.8170926372200747E-4</v>
-      </c>
-    </row>
-    <row r="136" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6602607997529185E-4</v>
+      </c>
+    </row>
+    <row r="136" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O136">
         <f t="shared" si="5"/>
-        <v>1.0074999999999999E-3</v>
-      </c>
-      <c r="Q136">
-        <f t="shared" si="6"/>
-        <v>5.8168039620854796E-4</v>
-      </c>
-    </row>
-    <row r="137" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6598806567922833E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O137">
         <f t="shared" si="5"/>
-        <v>1.0074999999999999E-3</v>
-      </c>
-      <c r="Q137">
-        <f t="shared" si="6"/>
-        <v>5.8168039620854796E-4</v>
-      </c>
-    </row>
-    <row r="138" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6598806567922833E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O138">
         <f t="shared" si="5"/>
-        <v>1.0074999999999999E-3</v>
-      </c>
-      <c r="Q138">
-        <f t="shared" si="6"/>
-        <v>5.8168039620854796E-4</v>
-      </c>
-    </row>
-    <row r="139" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6598806567922833E-4</v>
+      </c>
+    </row>
+    <row r="139" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O139">
         <f t="shared" si="5"/>
-        <v>1.00745E-3</v>
-      </c>
-      <c r="Q139">
-        <f t="shared" si="6"/>
-        <v>5.8165152869508855E-4</v>
-      </c>
-    </row>
-    <row r="140" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6595005138316481E-4</v>
+      </c>
+    </row>
+    <row r="140" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O140">
         <f t="shared" si="5"/>
-        <v>1.00745E-3</v>
-      </c>
-      <c r="Q140">
-        <f t="shared" si="6"/>
-        <v>5.8165152869508855E-4</v>
-      </c>
-    </row>
-    <row r="141" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6595005138316481E-4</v>
+      </c>
+    </row>
+    <row r="141" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O141">
         <f t="shared" si="5"/>
-        <v>1.00745E-3</v>
-      </c>
-      <c r="Q141">
-        <f t="shared" si="6"/>
-        <v>5.8165152869508855E-4</v>
-      </c>
-    </row>
-    <row r="142" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6595005138316481E-4</v>
+      </c>
+    </row>
+    <row r="142" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O142">
         <f t="shared" si="5"/>
-        <v>1.00745E-3</v>
-      </c>
-      <c r="Q142">
-        <f t="shared" si="6"/>
-        <v>5.8165152869508855E-4</v>
-      </c>
-    </row>
-    <row r="143" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6595005138316481E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O143">
         <f t="shared" si="5"/>
-        <v>1.00745E-3</v>
-      </c>
-      <c r="Q143">
-        <f t="shared" si="6"/>
-        <v>5.8165152869508855E-4</v>
-      </c>
-    </row>
-    <row r="144" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6595005138316481E-4</v>
+      </c>
+    </row>
+    <row r="144" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O144">
         <f t="shared" si="5"/>
-        <v>1.0074000000000001E-3</v>
-      </c>
-      <c r="Q144">
-        <f t="shared" si="6"/>
-        <v>5.8162266118162904E-4</v>
-      </c>
-    </row>
-    <row r="145" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.659120370871014E-4</v>
+      </c>
+    </row>
+    <row r="145" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O145">
         <f t="shared" si="5"/>
-        <v>1.0074000000000001E-3</v>
-      </c>
-      <c r="Q145">
-        <f t="shared" si="6"/>
-        <v>5.8162266118162904E-4</v>
-      </c>
-    </row>
-    <row r="146" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.659120370871014E-4</v>
+      </c>
+    </row>
+    <row r="146" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O146">
         <f t="shared" si="5"/>
-        <v>1.0074000000000001E-3</v>
-      </c>
-      <c r="Q146">
-        <f t="shared" si="6"/>
-        <v>5.8162266118162904E-4</v>
-      </c>
-    </row>
-    <row r="147" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.659120370871014E-4</v>
+      </c>
+    </row>
+    <row r="147" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O147">
         <f t="shared" si="5"/>
-        <v>1.0074000000000001E-3</v>
-      </c>
-      <c r="Q147">
-        <f t="shared" si="6"/>
-        <v>5.8162266118162904E-4</v>
-      </c>
-    </row>
-    <row r="148" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.659120370871014E-4</v>
+      </c>
+    </row>
+    <row r="148" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O148">
         <f t="shared" si="5"/>
-        <v>1.0074000000000001E-3</v>
-      </c>
-      <c r="Q148">
-        <f t="shared" si="6"/>
-        <v>5.8162266118162904E-4</v>
-      </c>
-    </row>
-    <row r="149" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.659120370871014E-4</v>
+      </c>
+    </row>
+    <row r="149" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O149">
         <f t="shared" si="5"/>
-        <v>1.0074000000000001E-3</v>
-      </c>
-      <c r="Q149">
-        <f t="shared" si="6"/>
-        <v>5.8162266118162904E-4</v>
-      </c>
-    </row>
-    <row r="150" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.659120370871014E-4</v>
+      </c>
+    </row>
+    <row r="150" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O150">
         <f t="shared" si="5"/>
-        <v>1.00735E-3</v>
-      </c>
-      <c r="Q150">
-        <f t="shared" si="6"/>
-        <v>5.8159379366816953E-4</v>
-      </c>
-    </row>
-    <row r="151" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6587402279103777E-4</v>
+      </c>
+    </row>
+    <row r="151" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O151">
         <f t="shared" si="5"/>
-        <v>1.00735E-3</v>
-      </c>
-      <c r="Q151">
-        <f t="shared" si="6"/>
-        <v>5.8159379366816953E-4</v>
-      </c>
-    </row>
-    <row r="152" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6587402279103777E-4</v>
+      </c>
+    </row>
+    <row r="152" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O152">
         <f t="shared" si="5"/>
-        <v>1.00735E-3</v>
-      </c>
-      <c r="Q152">
-        <f t="shared" si="6"/>
-        <v>5.8159379366816953E-4</v>
-      </c>
-    </row>
-    <row r="153" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6587402279103777E-4</v>
+      </c>
+    </row>
+    <row r="153" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O153">
         <f t="shared" si="5"/>
-        <v>1.00735E-3</v>
-      </c>
-      <c r="Q153">
-        <f t="shared" si="6"/>
-        <v>5.8159379366816953E-4</v>
-      </c>
-    </row>
-    <row r="154" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6587402279103777E-4</v>
+      </c>
+    </row>
+    <row r="154" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O154">
         <f t="shared" si="5"/>
-        <v>1.00735E-3</v>
-      </c>
-      <c r="Q154">
-        <f t="shared" si="6"/>
-        <v>5.8159379366816953E-4</v>
-      </c>
-    </row>
-    <row r="155" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6587402279103777E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O155">
         <f t="shared" si="5"/>
-        <v>1.0073E-3</v>
-      </c>
-      <c r="Q155">
-        <f t="shared" si="6"/>
-        <v>5.8156492615471012E-4</v>
-      </c>
-    </row>
-    <row r="156" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6583600849497435E-4</v>
+      </c>
+    </row>
+    <row r="156" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O156">
         <f t="shared" si="5"/>
-        <v>1.0073E-3</v>
-      </c>
-      <c r="Q156">
-        <f t="shared" si="6"/>
-        <v>5.8156492615471012E-4</v>
-      </c>
-    </row>
-    <row r="157" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6583600849497435E-4</v>
+      </c>
+    </row>
+    <row r="157" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O157">
         <f t="shared" si="5"/>
-        <v>1.0073E-3</v>
-      </c>
-      <c r="Q157">
-        <f t="shared" si="6"/>
-        <v>5.8156492615471012E-4</v>
-      </c>
-    </row>
-    <row r="158" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6583600849497435E-4</v>
+      </c>
+    </row>
+    <row r="158" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O158">
         <f t="shared" si="5"/>
-        <v>1.0072500000000001E-3</v>
-      </c>
-      <c r="Q158">
-        <f t="shared" si="6"/>
-        <v>5.8153605864125061E-4</v>
-      </c>
-    </row>
-    <row r="159" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6579799419891094E-4</v>
+      </c>
+    </row>
+    <row r="159" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O159">
         <f t="shared" si="5"/>
-        <v>1.0072500000000001E-3</v>
-      </c>
-      <c r="Q159">
-        <f t="shared" si="6"/>
-        <v>5.8153605864125061E-4</v>
-      </c>
-    </row>
-    <row r="160" spans="15:17" x14ac:dyDescent="0.3">
+        <v>7.6579799419891094E-4</v>
+      </c>
+    </row>
+    <row r="160" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O160">
         <f t="shared" si="5"/>
-        <v>1.0072500000000001E-3</v>
-      </c>
-      <c r="Q160">
-        <f t="shared" si="6"/>
-        <v>5.8153605864125061E-4</v>
+        <v>7.6579799419891094E-4</v>
       </c>
     </row>
   </sheetData>
